--- a/EssilorLuxottica Projects/LUX - 06 - Retrieve Vendor Reconciliation List/Data/Config.xlsx
+++ b/EssilorLuxottica Projects/LUX - 06 - Retrieve Vendor Reconciliation List/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\EssilorLuxottica Projects\LUX-06_Vendor Statement Reconciliation\LUX - 06 - Retrieve Vendor Reconciliation List\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E28102-748D-466D-808C-A45967E27068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74537032-A214-4CEA-B34C-230D25EA5166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -183,24 +183,12 @@
     <t>strReconciliaton_Queue</t>
   </si>
   <si>
-    <t>Ess.LUX-06_SubmissionTemplateName</t>
-  </si>
-  <si>
-    <t>Ess.LUX-06_SubmissionTemplateSheetName</t>
-  </si>
-  <si>
-    <t>Ess.LUX-06_SubmissionTemplatePath</t>
-  </si>
-  <si>
     <t>1000;2000;E100</t>
   </si>
   <si>
     <t>1010;5500;5700;0032;0016;0060;0127;0182;0133;0224</t>
   </si>
   <si>
-    <t>\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\EssilorLuxottica Projects\LUX-06_Vendor Statement Reconciliation\LUX - 06 - Retrieve Vendor Statements From SAP\Data\Input</t>
-  </si>
-  <si>
     <t>strVendorFilePath</t>
   </si>
   <si>
@@ -211,6 +199,18 @@
   </si>
   <si>
     <t>\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\EssilorLuxottica Projects\Components\</t>
+  </si>
+  <si>
+    <t>\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\TestFolder\RPA_VendorStatementReconciliation\InputFiles</t>
+  </si>
+  <si>
+    <t>Ess.LUX-06_StrSubmissionTemplateName</t>
+  </si>
+  <si>
+    <t>Ess.LUX-06_StrSubmissionTemplateSheetName</t>
+  </si>
+  <si>
+    <t>Ess.LUX-06_StrSubmissionTemplatePath</t>
   </si>
 </sst>
 </file>
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z986"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -666,31 +666,31 @@
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
         <v>59</v>
-      </c>
-      <c r="B7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2899,8 +2899,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2947,7 +2947,7 @@
         <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2955,7 +2955,7 @@
         <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2963,7 +2963,7 @@
         <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
